--- a/comparison_prompt_vs_no_prompt.xlsx
+++ b/comparison_prompt_vs_no_prompt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d56eb89965c5422/Escritorio/TFM_UCM/results/2_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d56eb89965c5422/Escritorio/TFM_UCM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{C9D03296-0719-46BA-8F0A-FE70BF7DB676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90E498B-6E5A-454F-B523-8560FEBE1635}"/>
+  <xr:revisionPtr revIDLastSave="655" documentId="13_ncr:1_{C9D03296-0719-46BA-8F0A-FE70BF7DB676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDF257C-CA43-4A2C-AF04-46EEE702FEFE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prompt" sheetId="10" r:id="rId1"/>
@@ -30,8 +30,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ENFERMERÍA!$T$16:$U$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">FARMACIA!$T$17:$U$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">FÍSICA!$T$21:$U$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Global!$O$29:$P$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MEDICINA!$S$13:$T$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Global!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MEDICINA!$L$16:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prueba_BIOLOGIA_2020!$K$28:$L$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PSICOLOGÍA!$V$14:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">QUÍMICA!$O$28:$P$28</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="56">
   <si>
     <t>Respondidas por el modelo</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>Física</t>
+  </si>
+  <si>
+    <t>2ª PRUEBA</t>
+  </si>
+  <si>
+    <t>SIN RAG</t>
+  </si>
+  <si>
+    <t>CON RAG</t>
+  </si>
+  <si>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>Prompt EN vs RAG</t>
+  </si>
+  <si>
+    <t>1ª PRUEBA</t>
+  </si>
+  <si>
+    <t>RAGv2</t>
   </si>
 </sst>
 </file>
@@ -393,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -517,11 +538,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,23 +705,105 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCDCD"/>
+      <color rgb="FFFEC4BA"/>
       <color rgb="FFAA7DC9"/>
       <color rgb="FFB182C8"/>
       <color rgb="FFB06BC3"/>
@@ -1742,6 +1856,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1749,7 +1864,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2163,6 +2277,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2170,7 +2285,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2584,6 +2698,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2591,7 +2706,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3005,6 +3119,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3012,7 +3127,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3384,6 +3498,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3391,7 +3506,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3805,6 +3919,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3812,7 +3927,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4184,6 +4298,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4191,7 +4306,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8576,13 +8690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>784859</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>22859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8741,13 +8855,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8873,6 +8987,449 @@
             <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660F2340-FED8-4869-8625-E99CBC32539A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792481" y="4937760"/>
+          <a:ext cx="7932420" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PROMPT_SIN_RAG = (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"You are a medical professional preparing for a clinical exam.\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Answer the following multiple-choice question using only your internal medical knowledge.\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Your response must follow this format: 'The correct answer is number X.' (where X is a number from 1 to 4), "</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "followed by a brief explanation using clinical reasoning and terminology.\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Do not use external sources or retrieved documents.\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "If you are not completely sure about the answer, respond only with: 'I'm not sure.'\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Do not guess or provide multiple options. Be concise and medically accurate.\n\n"</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B115293C-0F74-420A-BFBD-8D8A45390C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="7345680"/>
+          <a:ext cx="7932420" cy="2011680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PROMPT_RAG = (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Eres un profesional médico altamente capacitado que se está preparando para un examen clínico.\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Responde la siguiente pregunta de opción múltiple utilizando primero la información recuperada que se proporciona.\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Si la respuesta está claramente respaldada por el contenido recuperado, úsalo para justificar tu elección.\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Si el contenido recuperado no contiene suficiente información, entonces recurre a tu conocimiento médico interno para responder.\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Tu respuesta debe seguir este formato: 'La respuesta correcta es la número X.' (donde X es un número del 1 al 4), "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "seguido de una explicación detallada utilizando razonamiento clínico y terminología médica.\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "No adivines ni proporciones múltiples opciones. Si no estás seguro, responde únicamente: 'No estoy seguro.'\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "Sé preciso, conciso y clínicamente relevante.\n\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9440,22 +9997,42 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -10437,12 +11014,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -10452,6 +11023,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11430,12 +12007,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -11445,6 +12016,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12451,10 +13028,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:P31"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H23"/>
+      <selection activeCell="Q16" sqref="Q16:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12462,10 +13039,12 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="16" width="14.5546875" customWidth="1"/>
+    <col min="11" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
@@ -12476,16 +13055,17 @@
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
@@ -12526,9 +13106,12 @@
       <c r="P3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -12551,7 +13134,7 @@
         <v>48.36948714265192</v>
       </c>
       <c r="I4" s="22">
-        <f t="shared" ref="I4:I17" si="0">(G4/$D$29)*100</f>
+        <f>(G4/$D$36)*100</f>
         <v>0.22932492475275906</v>
       </c>
       <c r="J4" s="4"/>
@@ -12572,9 +13155,13 @@
         <f>H4-H6</f>
         <v>2.6465171035724566</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="Q4" s="7">
+        <f>H7-H4</f>
+        <v>-17.989487142651921</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -12595,11 +13182,11 @@
         <v>12</v>
       </c>
       <c r="H5" s="18">
-        <f t="shared" ref="H5:H23" si="1">(E5/D5)*100</f>
+        <f t="shared" ref="H5:H29" si="0">(E5/D5)*100</f>
         <v>47.796123474515433</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" si="0"/>
+        <f>(G5/$D$36)*100</f>
         <v>0.17199369356456928</v>
       </c>
       <c r="J5" s="4"/>
@@ -12608,21 +13195,25 @@
       </c>
       <c r="L5" s="7">
         <f>H8-H9</f>
-        <v>8.3428038356178575</v>
+        <v>-0.15743539061642764</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="7">
-        <f>H7-H8</f>
-        <v>-0.15743539061642764</v>
+        <f>H9-H8</f>
+        <v>0.15743539061642764</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
-        <f>H7-H9</f>
+        <f>H8-H10</f>
         <v>8.1853684450014299</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="Q5" s="7">
+        <f>H11-H8</f>
+        <v>-14.969699595609473</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -12639,11 +13230,11 @@
         <v>68</v>
       </c>
       <c r="H6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45.722970039079463</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="0"/>
+        <f>(G6/$D$36)*100</f>
         <v>0.97463093019922609</v>
       </c>
       <c r="J6" s="4"/>
@@ -12651,94 +13242,83 @@
         <v>7</v>
       </c>
       <c r="L6" s="7">
-        <f>H11-H12</f>
-        <v>0.30270311683732842</v>
+        <f>H14-H13</f>
+        <v>-0.30270311683732842</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="7">
-        <f>H10-H11</f>
-        <v>0.27561836840345677</v>
+        <f>H13-H12</f>
+        <v>-0.27561836840345677</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="7">
-        <f>H10-H12</f>
+        <f>H12-H14</f>
         <v>0.57832148524078519</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6924</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3041</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3883</v>
-      </c>
-      <c r="G7" s="1">
-        <v>53</v>
-      </c>
-      <c r="H7" s="19">
-        <f t="shared" si="1"/>
-        <v>43.919699595609472</v>
-      </c>
-      <c r="I7" s="23">
-        <f t="shared" si="0"/>
-        <v>0.75963881324351445</v>
-      </c>
+      <c r="Q6" s="7">
+        <f>H15-H12</f>
+        <v>-15.618785776235903</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="46"/>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="18">
+        <v>30.38</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="4"/>
       <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="7">
-        <f>H14-H15</f>
-        <v>-0.13338324287229142</v>
+        <f>H18-H17</f>
+        <v>0.13338324287229142</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="7">
-        <f>H13-H14</f>
-        <v>0.44738624504733693</v>
+        <f>H17-H16</f>
+        <v>-0.44738624504733693</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="7">
-        <f>H13-H15</f>
+        <f>H16-H18</f>
         <v>0.31400300217504551</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <f>MEDICINA!D8+ENFERMERÍA!D8+BIOLOGÍA!D8+FARMACIA!D8+PSICOLOGÍA!D8+FÍSICA!D8+QUÍMICA!D8</f>
-        <v>6897</v>
+        <v>6924</v>
       </c>
       <c r="E8" s="1">
-        <f>MEDICINA!E8+ENFERMERÍA!E8+BIOLOGÍA!E8+FARMACIA!E8+PSICOLOGÍA!E8+FÍSICA!E8+QUÍMICA!E8</f>
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="F8" s="1">
-        <f>MEDICINA!F8+ENFERMERÍA!F8+BIOLOGÍA!F8+FARMACIA!F8+PSICOLOGÍA!F8+FÍSICA!F8+QUÍMICA!F8</f>
-        <v>3797</v>
+        <v>3883</v>
       </c>
       <c r="G8" s="1">
-        <f>MEDICINA!G8+ENFERMERÍA!G8+BIOLOGÍA!G8+FARMACIA!G8+PSICOLOGÍA!G8+FÍSICA!G8+QUÍMICA!G8</f>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="1"/>
-        <v>44.0771349862259</v>
+        <f t="shared" si="0"/>
+        <v>43.919699595609472</v>
       </c>
       <c r="I8" s="23">
-        <f t="shared" si="0"/>
-        <v>1.1466246237637954</v>
+        <f>(G8/$D$36)*100</f>
+        <v>0.75963881324351445</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="14" t="s">
@@ -12746,92 +13326,93 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7">
-        <f>H17-H14</f>
+        <f>H21-H17</f>
         <v>6.3500718936889236</v>
       </c>
       <c r="N8" s="7">
-        <f>H16-H17</f>
-        <v>-1.6369695395635375E-2</v>
+        <f>H21-H20</f>
+        <v>1.6369695395635375E-2</v>
       </c>
       <c r="O8" s="7">
-        <f>H16-H13</f>
+        <f>H20-H16</f>
         <v>5.8863159532459512</v>
       </c>
-      <c r="P8" s="7">
-        <f>H16-H15</f>
-        <v>6.2003189554209968</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>5345</v>
+        <f>MEDICINA!D9+ENFERMERÍA!D8+BIOLOGÍA!D8+FARMACIA!D8+PSICOLOGÍA!D8+FÍSICA!D8+QUÍMICA!D8</f>
+        <v>6897</v>
       </c>
       <c r="E9" s="1">
-        <v>1910</v>
+        <f>MEDICINA!E9+ENFERMERÍA!E8+BIOLOGÍA!E8+FARMACIA!E8+PSICOLOGÍA!E8+FÍSICA!E8+QUÍMICA!E8</f>
+        <v>3040</v>
       </c>
       <c r="F9" s="1">
-        <v>3435</v>
+        <f>MEDICINA!F9+ENFERMERÍA!F8+BIOLOGÍA!F8+FARMACIA!F8+PSICOLOGÍA!F8+FÍSICA!F8+QUÍMICA!F8</f>
+        <v>3797</v>
       </c>
       <c r="G9" s="1">
-        <v>1632</v>
+        <f>MEDICINA!G9+ENFERMERÍA!G8+BIOLOGÍA!G8+FARMACIA!G8+PSICOLOGÍA!G8+FÍSICA!G8+QUÍMICA!G8</f>
+        <v>80</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="1"/>
-        <v>35.734331150608043</v>
+        <f t="shared" si="0"/>
+        <v>44.0771349862259</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" si="0"/>
-        <v>23.391142324781423</v>
+        <f>(G9/$D$36)*100</f>
+        <v>1.1466246237637954</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="7">
-        <f>H20-H21</f>
-        <v>15.816487190567614</v>
+      <c r="L9" s="8">
+        <f>H26-H25</f>
+        <v>-15.816487190567614</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="7">
-        <f>H19-H20</f>
-        <v>-7.5459641004111759</v>
+        <f>H25-H24</f>
+        <v>7.5459641004111759</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
-        <f>H19-H21</f>
+        <f>H24-H26</f>
         <v>8.2705230901564377</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6918</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3030</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3888</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="1"/>
-        <v>43.798785776235903</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5345</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1910</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3435</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1632</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0.71664038985237211</v>
+        <v>35.734331150608043</v>
+      </c>
+      <c r="I10" s="23">
+        <f>(G10/$D$36)*100</f>
+        <v>23.391142324781423</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="14" t="s">
@@ -12839,201 +13420,173 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="7">
-        <f>H23-H20</f>
+        <f>H29-H25</f>
         <v>-1.5549564499432549</v>
       </c>
       <c r="N10" s="7">
-        <f>H22-H23</f>
-        <v>-18.015882709527883</v>
+        <f>H29-H28</f>
+        <v>18.015882709527883</v>
       </c>
       <c r="O10" s="7">
-        <f>H22-H20</f>
-        <v>-19.570839159471138</v>
-      </c>
-      <c r="P10" s="7">
-        <f>H22-H21</f>
-        <v>-3.7543519689035243</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="3" t="s">
+        <f>H28-H24</f>
+        <v>-12.024875059059962</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="46"/>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="19">
+        <v>28.95</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6918</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3030</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3888</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>43.798785776235903</v>
+      </c>
+      <c r="I12" s="22">
+        <f>(G12/$D$36)*100</f>
+        <v>0.71664038985237211</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <f>MEDICINA!D11+ENFERMERÍA!D11+BIOLOGÍA!D11+FARMACIA!D11+PSICOLOGÍA!D11+FÍSICA!D11+QUÍMICA!D11</f>
+      <c r="D13" s="3">
+        <f>MEDICINA!D13+ENFERMERÍA!D11+BIOLOGÍA!D11+FARMACIA!D11+PSICOLOGÍA!D11+FÍSICA!D11+QUÍMICA!D11</f>
         <v>6971</v>
       </c>
-      <c r="E11" s="3">
-        <f>MEDICINA!E11+ENFERMERÍA!E11+BIOLOGÍA!E11+FARMACIA!E11+PSICOLOGÍA!E11+FÍSICA!E11+QUÍMICA!E11</f>
+      <c r="E13" s="3">
+        <f>MEDICINA!E13+ENFERMERÍA!E11+BIOLOGÍA!E11+FARMACIA!E11+PSICOLOGÍA!E11+FÍSICA!E11+QUÍMICA!E11</f>
         <v>3034</v>
       </c>
-      <c r="F11" s="3">
-        <f>MEDICINA!F11+ENFERMERÍA!F11+BIOLOGÍA!F11+FARMACIA!F11+PSICOLOGÍA!F11+FÍSICA!F11+QUÍMICA!F11</f>
+      <c r="F13" s="3">
+        <f>MEDICINA!F13+ENFERMERÍA!F11+BIOLOGÍA!F11+FARMACIA!F11+PSICOLOGÍA!F11+FÍSICA!F11+QUÍMICA!F11</f>
         <v>3937</v>
       </c>
-      <c r="G11" s="3">
-        <f>MEDICINA!G11+ENFERMERÍA!G11+BIOLOGÍA!G11+FARMACIA!G11+PSICOLOGÍA!G11+FÍSICA!G11+QUÍMICA!G11</f>
+      <c r="G13" s="3">
+        <f>MEDICINA!G13+ENFERMERÍA!G11+BIOLOGÍA!G11+FARMACIA!G11+PSICOLOGÍA!G11+FÍSICA!G11+QUÍMICA!G11</f>
         <v>6</v>
       </c>
-      <c r="H11" s="18">
-        <f t="shared" si="1"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
         <v>43.523167407832446</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I13" s="22">
+        <f>(G13/$D$36)*100</f>
+        <v>8.5996846782284642E-2</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6763</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2923</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3840</v>
+      </c>
+      <c r="G14" s="3">
+        <v>214</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>8.5996846782284642E-2</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6763</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2923</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3840</v>
-      </c>
-      <c r="G12" s="3">
-        <v>214</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="1"/>
         <v>43.220464290995118</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I14" s="22">
+        <f>(G14/$D$36)*100</f>
+        <v>3.0672208685681523</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="18">
+        <v>28.18</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+    </row>
+    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2511</v>
+      </c>
+      <c r="E16" s="1">
+        <v>641</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1870</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4466</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>3.0672208685681523</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2511</v>
-      </c>
-      <c r="E13" s="1">
-        <v>641</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1870</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4466</v>
-      </c>
-      <c r="H13" s="19">
-        <f t="shared" si="1"/>
         <v>25.527678215850258</v>
       </c>
-      <c r="I13" s="23">
-        <f t="shared" si="0"/>
+      <c r="I16" s="23">
+        <f>(G16/$D$36)*100</f>
         <v>64.010319621613874</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
-        <f>MEDICINA!D14+ENFERMERÍA!D14+BIOLOGÍA!D14+FARMACIA!D14+PSICOLOGÍA!D14+FÍSICA!D14+QUÍMICA!D14</f>
-        <v>3425</v>
-      </c>
-      <c r="E14" s="1">
-        <f>MEDICINA!E14+ENFERMERÍA!E14+BIOLOGÍA!E14+FARMACIA!E14+PSICOLOGÍA!E14+FÍSICA!E14+QUÍMICA!E14</f>
-        <v>859</v>
-      </c>
-      <c r="F14" s="1">
-        <f>MEDICINA!F14+ENFERMERÍA!F14+BIOLOGÍA!F14+FARMACIA!F14+PSICOLOGÍA!F14+FÍSICA!F14+QUÍMICA!F14</f>
-        <v>2566</v>
-      </c>
-      <c r="G14" s="1">
-        <f>MEDICINA!G14+ENFERMERÍA!G14+BIOLOGÍA!G14+FARMACIA!G14+PSICOLOGÍA!G14+FÍSICA!G14+QUÍMICA!G14</f>
-        <v>3552</v>
-      </c>
-      <c r="H14" s="19">
-        <f t="shared" si="1"/>
-        <v>25.080291970802921</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="0"/>
-        <v>50.910133295112516</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1170</v>
-      </c>
-      <c r="E15" s="1">
-        <v>295</v>
-      </c>
-      <c r="F15" s="1">
-        <v>875</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5007</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" si="1"/>
-        <v>25.213675213675213</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="0"/>
-        <v>71.764368639816539</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6860</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2155</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4705</v>
-      </c>
-      <c r="G16" s="3">
-        <v>116</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="1"/>
-        <v>31.41399416909621</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6626057044575031</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="49" t="s">
@@ -13048,31 +13601,39 @@
         <v>15</v>
       </c>
       <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3">
-        <v>6376</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2004</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4372</v>
-      </c>
-      <c r="G17" s="3">
-        <v>601</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="1"/>
-        <v>31.430363864491845</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="D17" s="1">
+        <f>MEDICINA!D17+ENFERMERÍA!D14+BIOLOGÍA!D14+FARMACIA!D14+PSICOLOGÍA!D14+FÍSICA!D14+QUÍMICA!D14</f>
+        <v>3425</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MEDICINA!E17+ENFERMERÍA!E14+BIOLOGÍA!E14+FARMACIA!E14+PSICOLOGÍA!E14+FÍSICA!E14+QUÍMICA!E14</f>
+        <v>859</v>
+      </c>
+      <c r="F17" s="1">
+        <f>MEDICINA!F17+ENFERMERÍA!F14+BIOLOGÍA!F14+FARMACIA!F14+PSICOLOGÍA!F14+FÍSICA!F14+QUÍMICA!F14</f>
+        <v>2566</v>
+      </c>
+      <c r="G17" s="1">
+        <f>MEDICINA!G17+ENFERMERÍA!G14+BIOLOGÍA!G14+FARMACIA!G14+PSICOLOGÍA!G14+FÍSICA!G14+QUÍMICA!G14</f>
+        <v>3552</v>
+      </c>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>8.6140174860255119</v>
+        <v>25.080291970802921</v>
+      </c>
+      <c r="I17" s="23">
+        <f>(G17/$D$36)*100</f>
+        <v>50.910133295112516</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="21" t="s">
@@ -13093,18 +13654,38 @@
       <c r="P17" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="24" t="s">
+      <c r="Q17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="D18" s="1">
+        <v>1170</v>
+      </c>
+      <c r="E18" s="1">
+        <v>295</v>
+      </c>
+      <c r="F18" s="1">
+        <v>875</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>25.213675213675213</v>
+      </c>
+      <c r="I18" s="23">
+        <f>(G18/$D$36)*100</f>
+        <v>71.764368639816539</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1" t="s">
         <v>5</v>
@@ -13124,34 +13705,25 @@
       <c r="P18" s="11">
         <v>48.36948714265192</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3135</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1164</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1971</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3842</v>
-      </c>
-      <c r="H19" s="19">
-        <f t="shared" si="1"/>
-        <v>37.12918660287081</v>
-      </c>
-      <c r="I19" s="23">
-        <f>(G19/$D$29)*100</f>
-        <v>55.066647556256264</v>
-      </c>
+      <c r="Q18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="11">
+        <f>H7</f>
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="46"/>
+      <c r="C19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="4"/>
       <c r="K19" s="1" t="s">
         <v>7</v>
@@ -13171,35 +13743,40 @@
       <c r="P19" s="11">
         <v>43.919699595609472</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <f>MEDICINA!D20+ENFERMERÍA!D20+BIOLOGÍA!D20+FARMACIA!D20+PSICOLOGÍA!D20+FÍSICA!D20+QUÍMICA!D20</f>
-        <v>5972</v>
-      </c>
-      <c r="E20" s="1">
-        <f>MEDICINA!E20+ENFERMERÍA!E20+BIOLOGÍA!E20+FARMACIA!E20+PSICOLOGÍA!E20+FÍSICA!E20+QUÍMICA!E20</f>
-        <v>2668</v>
-      </c>
-      <c r="F20" s="1">
-        <f>MEDICINA!F20+ENFERMERÍA!F20+BIOLOGÍA!F20+FARMACIA!F20+PSICOLOGÍA!F20+FÍSICA!F20+QUÍMICA!F20</f>
-        <v>3304</v>
-      </c>
-      <c r="G20" s="1">
-        <f>MEDICINA!G20+ENFERMERÍA!G20+BIOLOGÍA!G20+FARMACIA!G20+PSICOLOGÍA!G20+FÍSICA!G20+QUÍMICA!G20</f>
-        <v>1005</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="1"/>
-        <v>44.675150703281986</v>
-      </c>
-      <c r="I20" s="23">
-        <f>(G20/$D$29)*100</f>
-        <v>14.404471836032679</v>
+      <c r="Q19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="11">
+        <f>H11</f>
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6860</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2155</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4705</v>
+      </c>
+      <c r="G20" s="3">
+        <v>116</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>31.41399416909621</v>
+      </c>
+      <c r="I20" s="22">
+        <f>(G20/$D$36)*100</f>
+        <v>1.6626057044575031</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="1" t="s">
@@ -13220,31 +13797,38 @@
       <c r="P20" s="11">
         <v>43.798785776235903</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="11">
+        <f>H15</f>
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="38"/>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1691</v>
-      </c>
-      <c r="E21" s="1">
-        <v>488</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1203</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5286</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="1"/>
-        <v>28.858663512714372</v>
-      </c>
-      <c r="I21" s="23">
-        <f>(G21/$D$29)*100</f>
-        <v>75.763222015192781</v>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6376</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4372</v>
+      </c>
+      <c r="G21" s="3">
+        <v>601</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>31.430363864491845</v>
+      </c>
+      <c r="I21" s="22">
+        <f>(G21/$D$36)*100</f>
+        <v>8.6140174860255119</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="1" t="s">
@@ -13266,33 +13850,17 @@
         <v>37.12918660287081</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1438</v>
-      </c>
-      <c r="E22" s="3">
-        <v>361</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1077</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5539</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="1"/>
-        <v>25.104311543810848</v>
-      </c>
-      <c r="I22" s="22">
-        <f>(G22/$D$29)*100</f>
-        <v>79.389422387845769</v>
-      </c>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="38"/>
+      <c r="C22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="4"/>
       <c r="K22" s="1" t="s">
         <v>8</v>
@@ -13313,31 +13881,17 @@
         <v>31.41399416909621</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4942</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2131</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2811</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2035</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="1"/>
-        <v>43.120194253338731</v>
-      </c>
-      <c r="I23" s="22">
-        <f>(G23/$D$29)*100</f>
-        <v>29.167263866991544</v>
-      </c>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="4"/>
       <c r="M23" s="1" t="s">
         <v>11</v>
@@ -13352,17 +13906,33 @@
         <v>25.527678215850258</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3135</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1164</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1971</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3842</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>37.12918660287081</v>
+      </c>
+      <c r="I24" s="23">
+        <f>(G24/$D$36)*100</f>
+        <v>55.066647556256264</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="M24" s="1" t="s">
         <v>8</v>
@@ -13377,91 +13947,287 @@
         <v>25.104311543810848</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="38"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <f>MEDICINA!D25+ENFERMERÍA!D20+BIOLOGÍA!D20+FARMACIA!D20+PSICOLOGÍA!D20+FÍSICA!D20+QUÍMICA!D20</f>
+        <v>5972</v>
+      </c>
+      <c r="E25" s="1">
+        <f>MEDICINA!E25+ENFERMERÍA!E20+BIOLOGÍA!E20+FARMACIA!E20+PSICOLOGÍA!E20+FÍSICA!E20+QUÍMICA!E20</f>
+        <v>2668</v>
+      </c>
+      <c r="F25" s="1">
+        <f>MEDICINA!F25+ENFERMERÍA!F20+BIOLOGÍA!F20+FARMACIA!F20+PSICOLOGÍA!F20+FÍSICA!F20+QUÍMICA!F20</f>
+        <v>3304</v>
+      </c>
+      <c r="G25" s="1">
+        <f>MEDICINA!G25+ENFERMERÍA!G20+BIOLOGÍA!G20+FARMACIA!G20+PSICOLOGÍA!G20+FÍSICA!G20+QUÍMICA!G20</f>
+        <v>1005</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>44.675150703281986</v>
+      </c>
+      <c r="I25" s="23">
+        <f>(G25/$D$36)*100</f>
+        <v>14.404471836032679</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1691</v>
+      </c>
+      <c r="E26" s="1">
+        <v>488</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1203</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5286</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>28.858663512714372</v>
+      </c>
+      <c r="I26" s="23">
+        <f>(G26/$D$36)*100</f>
+        <v>75.763222015192781</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1438</v>
+      </c>
+      <c r="E28" s="3">
+        <v>361</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1077</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5539</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>25.104311543810848</v>
+      </c>
+      <c r="I28" s="22">
+        <f>(G28/$D$36)*100</f>
+        <v>79.389422387845769</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4942</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2131</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2811</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2035</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>43.120194253338731</v>
+      </c>
+      <c r="I29" s="22">
+        <f>(G29/$D$36)*100</f>
+        <v>29.167263866991544</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="38"/>
+      <c r="C31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="F27" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="F34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C36" s="12">
         <v>6977</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D36" s="12">
         <v>6977</v>
       </c>
-      <c r="E29">
+      <c r="E36">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C37" s="12">
         <v>182</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30">
+      <c r="D37" s="12"/>
+      <c r="E37">
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="12">
-        <f>SUM(C29:C30)</f>
+      <c r="C38" s="12">
+        <f>SUM(C36:C37)</f>
         <v>7159</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" ref="D31" si="2">SUM(D29:D30)</f>
+      <c r="D38" s="12">
+        <f t="shared" ref="D38" si="1">SUM(D36:D37)</f>
         <v>6977</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
+  <mergeCells count="16">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
+  <conditionalFormatting sqref="L4:Q10">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="notContainsText" priority="2" operator="notContains" id="{1999EFE3-A1D5-481D-BDF4-A16FC8C52F50}">
+            <xm:f>ISERROR(SEARCH("-",L4))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{3D8160F8-1F06-47ED-8B43-A783F8FCA6DF}">
+            <xm:f>NOT(ISERROR(SEARCH("-",L4)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFCDCD"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L4:Q10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13472,7 +14238,7 @@
   </sheetPr>
   <dimension ref="B2:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13660,7 +14426,7 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -13669,7 +14435,7 @@
       <c r="D30" s="28">
         <v>49.444444444444443</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="27" t="s">
@@ -13678,7 +14444,7 @@
       <c r="H30" s="28">
         <v>43.673012318029116</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="K30" s="27" t="s">
@@ -13687,7 +14453,7 @@
       <c r="L30" s="28">
         <v>40.777777777777779</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="O30" s="27" t="s">
@@ -13696,7 +14462,7 @@
       <c r="P30" s="28">
         <v>21.5962441314554</v>
       </c>
-      <c r="R30" s="52" t="s">
+      <c r="R30" s="51" t="s">
         <v>42</v>
       </c>
       <c r="S30" s="27" t="s">
@@ -13705,7 +14471,7 @@
       <c r="T30" s="28">
         <v>30.201342281879196</v>
       </c>
-      <c r="V30" s="51" t="s">
+      <c r="V30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="W30" s="27" t="s">
@@ -13714,7 +14480,7 @@
       <c r="X30" s="28">
         <v>43.75</v>
       </c>
-      <c r="Z30" s="52" t="s">
+      <c r="Z30" s="51" t="s">
         <v>42</v>
       </c>
       <c r="AA30" s="27" t="s">
@@ -13725,49 +14491,49 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="28">
         <v>48.222222222222221</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="28">
         <v>43.56103023516237</v>
       </c>
-      <c r="J31" s="51"/>
+      <c r="J31" s="53"/>
       <c r="K31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L31" s="28">
         <v>39.777777777777779</v>
       </c>
-      <c r="N31" s="51"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P31" s="28">
         <v>26.51006711409396</v>
       </c>
-      <c r="R31" s="53"/>
+      <c r="R31" s="52"/>
       <c r="S31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T31" s="28">
         <v>29.360100376411541</v>
       </c>
-      <c r="V31" s="51"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="X31" s="28">
         <v>33.75</v>
       </c>
-      <c r="Z31" s="53"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="27" t="s">
         <v>14</v>
       </c>
@@ -13776,35 +14542,35 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="28">
         <v>47.544642857142854</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="28">
         <v>35.068912710566615</v>
       </c>
-      <c r="J32" s="51"/>
+      <c r="J32" s="53"/>
       <c r="K32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="28">
         <v>40.56818181818182</v>
       </c>
-      <c r="N32" s="51"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="28">
         <v>25.925925925925924</v>
       </c>
-      <c r="R32" s="52" t="s">
+      <c r="R32" s="51" t="s">
         <v>43</v>
       </c>
       <c r="S32" s="27" t="s">
@@ -13813,14 +14579,14 @@
       <c r="T32" s="28">
         <v>33.368421052631582</v>
       </c>
-      <c r="V32" s="51"/>
+      <c r="V32" s="53"/>
       <c r="W32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="X32" s="28">
         <v>31.351351351351354</v>
       </c>
-      <c r="Z32" s="52" t="s">
+      <c r="Z32" s="51" t="s">
         <v>43</v>
       </c>
       <c r="AA32" s="27" t="s">
@@ -13831,7 +14597,7 @@
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="53" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -13840,7 +14606,7 @@
       <c r="D33" s="28">
         <v>46.985446985446991</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="53" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="27" t="s">
@@ -13849,7 +14615,7 @@
       <c r="H33" s="28">
         <v>42.291666666666664</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J33" s="53" t="s">
         <v>43</v>
       </c>
       <c r="K33" s="27" t="s">
@@ -13858,7 +14624,7 @@
       <c r="L33" s="28">
         <v>42.708333333333329</v>
       </c>
-      <c r="N33" s="51" t="s">
+      <c r="N33" s="53" t="s">
         <v>43</v>
       </c>
       <c r="O33" s="27" t="s">
@@ -13867,14 +14633,14 @@
       <c r="P33" s="28">
         <v>24.840764331210192</v>
       </c>
-      <c r="R33" s="53"/>
+      <c r="R33" s="52"/>
       <c r="S33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T33" s="28">
         <v>31.968145620022753</v>
       </c>
-      <c r="V33" s="51" t="s">
+      <c r="V33" s="53" t="s">
         <v>43</v>
       </c>
       <c r="W33" s="27" t="s">
@@ -13883,7 +14649,7 @@
       <c r="X33" s="28">
         <v>39.351851851851855</v>
       </c>
-      <c r="Z33" s="53"/>
+      <c r="Z33" s="52"/>
       <c r="AA33" s="27" t="s">
         <v>14</v>
       </c>
@@ -13892,35 +14658,35 @@
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="28">
         <v>47.046632124352335</v>
       </c>
-      <c r="F34" s="51"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="28">
         <v>41.350210970464133</v>
       </c>
-      <c r="J34" s="51"/>
+      <c r="J34" s="53"/>
       <c r="K34" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="28">
         <v>41.390041493775932</v>
       </c>
-      <c r="N34" s="51"/>
+      <c r="N34" s="53"/>
       <c r="O34" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P34" s="28">
         <v>27.118644067796609</v>
       </c>
-      <c r="R34" s="52" t="s">
+      <c r="R34" s="51" t="s">
         <v>44</v>
       </c>
       <c r="S34" s="27" t="s">
@@ -13929,14 +14695,14 @@
       <c r="T34" s="28">
         <v>37.769080234833659</v>
       </c>
-      <c r="V34" s="51"/>
+      <c r="V34" s="53"/>
       <c r="W34" s="27" t="s">
         <v>14</v>
       </c>
       <c r="X34" s="28">
         <v>41.666666666666671</v>
       </c>
-      <c r="Z34" s="52" t="s">
+      <c r="Z34" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AA34" s="27" t="s">
@@ -13947,49 +14713,49 @@
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="51"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="28">
         <v>45.185185185185183</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="28">
         <v>36.37660485021398</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="28">
         <v>41.492864983534581</v>
       </c>
-      <c r="N35" s="51"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="28">
         <v>30.487804878048781</v>
       </c>
-      <c r="R35" s="53"/>
+      <c r="R35" s="52"/>
       <c r="S35" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T35" s="28">
         <v>38.223140495867767</v>
       </c>
-      <c r="V35" s="51"/>
+      <c r="V35" s="53"/>
       <c r="W35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="X35" s="28">
         <v>34.915254237288131</v>
       </c>
-      <c r="Z35" s="53"/>
+      <c r="Z35" s="52"/>
       <c r="AA35" s="27" t="s">
         <v>14</v>
       </c>
@@ -13998,7 +14764,7 @@
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -14007,7 +14773,7 @@
       <c r="D36" s="28">
         <v>62.230919765166334</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="53" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="27" t="s">
@@ -14016,7 +14782,7 @@
       <c r="H36" s="28">
         <v>56.2992125984252</v>
       </c>
-      <c r="J36" s="51" t="s">
+      <c r="J36" s="53" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="27" t="s">
@@ -14025,7 +14791,7 @@
       <c r="L36" s="28">
         <v>56.876227897838902</v>
       </c>
-      <c r="N36" s="51" t="s">
+      <c r="N36" s="53" t="s">
         <v>44</v>
       </c>
       <c r="O36" s="27" t="s">
@@ -14034,7 +14800,7 @@
       <c r="P36" s="28">
         <v>29.449838187702266</v>
       </c>
-      <c r="R36" s="52" t="s">
+      <c r="R36" s="51" t="s">
         <v>45</v>
       </c>
       <c r="S36" s="27" t="s">
@@ -14043,7 +14809,7 @@
       <c r="T36" s="28">
         <v>30.48180924287119</v>
       </c>
-      <c r="V36" s="51" t="s">
+      <c r="V36" s="53" t="s">
         <v>44</v>
       </c>
       <c r="W36" s="27" t="s">
@@ -14052,7 +14818,7 @@
       <c r="X36" s="28">
         <v>42.654028436018962</v>
       </c>
-      <c r="Z36" s="52" t="s">
+      <c r="Z36" s="51" t="s">
         <v>45</v>
       </c>
       <c r="AA36" s="27" t="s">
@@ -14063,49 +14829,49 @@
       </c>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="51"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="28">
         <v>59.843290891283054</v>
       </c>
-      <c r="F37" s="51"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="28">
         <v>58.800393313667655</v>
       </c>
-      <c r="J37" s="51"/>
+      <c r="J37" s="53"/>
       <c r="K37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L37" s="28">
         <v>55.859375</v>
       </c>
-      <c r="N37" s="51"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P37" s="28">
         <v>24.301075268817204</v>
       </c>
-      <c r="R37" s="53"/>
+      <c r="R37" s="52"/>
       <c r="S37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T37" s="28">
         <v>32.700421940928273</v>
       </c>
-      <c r="V37" s="51"/>
+      <c r="V37" s="53"/>
       <c r="W37" s="27" t="s">
         <v>14</v>
       </c>
       <c r="X37" s="28">
         <v>60.861056751467714</v>
       </c>
-      <c r="Z37" s="53"/>
+      <c r="Z37" s="52"/>
       <c r="AA37" s="27" t="s">
         <v>14</v>
       </c>
@@ -14114,35 +14880,35 @@
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B38" s="51"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="28">
         <v>59.077526987242393</v>
       </c>
-      <c r="F38" s="51"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="28">
         <v>45.139813581890813</v>
       </c>
-      <c r="J38" s="51"/>
+      <c r="J38" s="53"/>
       <c r="K38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="28">
         <v>55.850540806293012</v>
       </c>
-      <c r="N38" s="51"/>
+      <c r="N38" s="53"/>
       <c r="O38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P38" s="28">
         <v>22.666666666666664</v>
       </c>
-      <c r="R38" s="52" t="s">
+      <c r="R38" s="51" t="s">
         <v>46</v>
       </c>
       <c r="S38" s="27" t="s">
@@ -14151,14 +14917,14 @@
       <c r="T38" s="28">
         <v>30.186823992133725</v>
       </c>
-      <c r="V38" s="51"/>
+      <c r="V38" s="53"/>
       <c r="W38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="X38" s="28">
         <v>29.787234042553191</v>
       </c>
-      <c r="Z38" s="52" t="s">
+      <c r="Z38" s="51" t="s">
         <v>46</v>
       </c>
       <c r="AA38" s="27" t="s">
@@ -14169,7 +14935,7 @@
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -14178,7 +14944,7 @@
       <c r="D39" s="28">
         <v>50.341463414634148</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="53" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="27" t="s">
@@ -14187,7 +14953,7 @@
       <c r="H39" s="28">
         <v>44.662095984329085</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="53" t="s">
         <v>45</v>
       </c>
       <c r="K39" s="27" t="s">
@@ -14196,7 +14962,7 @@
       <c r="L39" s="28">
         <v>45.329400196656835</v>
       </c>
-      <c r="N39" s="51" t="s">
+      <c r="N39" s="53" t="s">
         <v>45</v>
       </c>
       <c r="O39" s="27" t="s">
@@ -14205,14 +14971,14 @@
       <c r="P39" s="28">
         <v>24.281150159744406</v>
       </c>
-      <c r="R39" s="53"/>
+      <c r="R39" s="52"/>
       <c r="S39" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T39" s="28">
         <v>31.472081218274113</v>
       </c>
-      <c r="V39" s="51" t="s">
+      <c r="V39" s="53" t="s">
         <v>45</v>
       </c>
       <c r="W39" s="27" t="s">
@@ -14221,7 +14987,7 @@
       <c r="X39" s="28">
         <v>37.172774869109951</v>
       </c>
-      <c r="Z39" s="53"/>
+      <c r="Z39" s="52"/>
       <c r="AA39" s="27" t="s">
         <v>14</v>
       </c>
@@ -14230,35 +14996,35 @@
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="28">
         <v>51.804878048780488</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="28">
         <v>44.773175542406314</v>
       </c>
-      <c r="J40" s="51"/>
+      <c r="J40" s="53"/>
       <c r="K40" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="28">
         <v>46.048780487804883</v>
       </c>
-      <c r="N40" s="51"/>
+      <c r="N40" s="53"/>
       <c r="O40" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P40" s="28">
         <v>24.040404040404042</v>
       </c>
-      <c r="R40" s="52" t="s">
+      <c r="R40" s="51" t="s">
         <v>48</v>
       </c>
       <c r="S40" s="27" t="s">
@@ -14267,14 +15033,14 @@
       <c r="T40" s="28">
         <v>26.1139896373057</v>
       </c>
-      <c r="V40" s="51"/>
+      <c r="V40" s="53"/>
       <c r="W40" s="27" t="s">
         <v>14</v>
       </c>
       <c r="X40" s="28">
         <v>46.012269938650306</v>
       </c>
-      <c r="Z40" s="52" t="s">
+      <c r="Z40" s="51" t="s">
         <v>48</v>
       </c>
       <c r="AA40" s="27" t="s">
@@ -14285,49 +15051,49 @@
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B41" s="51"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="28">
         <v>50</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="28">
         <v>37.79220779220779</v>
       </c>
-      <c r="J41" s="51"/>
+      <c r="J41" s="53"/>
       <c r="K41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="28">
         <v>45.436507936507937</v>
       </c>
-      <c r="N41" s="51"/>
+      <c r="N41" s="53"/>
       <c r="O41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P41" s="28">
         <v>29.565217391304348</v>
       </c>
-      <c r="R41" s="53"/>
+      <c r="R41" s="52"/>
       <c r="S41" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T41" s="28">
         <v>26.674500587544063</v>
       </c>
-      <c r="V41" s="51"/>
+      <c r="V41" s="53"/>
       <c r="W41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="28">
         <v>31.496062992125985</v>
       </c>
-      <c r="Z41" s="53"/>
+      <c r="Z41" s="52"/>
       <c r="AA41" s="27" t="s">
         <v>14</v>
       </c>
@@ -14336,7 +15102,7 @@
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -14345,7 +15111,7 @@
       <c r="D42" s="28">
         <v>47.804878048780488</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -14354,7 +15120,7 @@
       <c r="H42" s="28">
         <v>44.574780058651022</v>
       </c>
-      <c r="J42" s="51" t="s">
+      <c r="J42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="K42" s="27" t="s">
@@ -14363,7 +15129,7 @@
       <c r="L42" s="28">
         <v>41.756097560975611</v>
       </c>
-      <c r="N42" s="51" t="s">
+      <c r="N42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="O42" s="27" t="s">
@@ -14372,7 +15138,7 @@
       <c r="P42" s="28">
         <v>27.374301675977652</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="R42" s="51" t="s">
         <v>47</v>
       </c>
       <c r="S42" s="27" t="s">
@@ -14381,7 +15147,7 @@
       <c r="T42" s="28">
         <v>31.457286432160803</v>
       </c>
-      <c r="V42" s="51" t="s">
+      <c r="V42" s="53" t="s">
         <v>46</v>
       </c>
       <c r="W42" s="27" t="s">
@@ -14390,7 +15156,7 @@
       <c r="X42" s="28">
         <v>31.477927063339735</v>
       </c>
-      <c r="Z42" s="52" t="s">
+      <c r="Z42" s="51" t="s">
         <v>47</v>
       </c>
       <c r="AA42" s="27" t="s">
@@ -14401,49 +15167,49 @@
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B43" s="51"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="28">
         <v>48.097560975609753</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="28">
         <v>45.759368836291912</v>
       </c>
-      <c r="J43" s="51"/>
+      <c r="J43" s="53"/>
       <c r="K43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L43" s="28">
         <v>41.365853658536587</v>
       </c>
-      <c r="N43" s="51"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P43" s="28">
         <v>29.076620825147348</v>
       </c>
-      <c r="R43" s="53"/>
+      <c r="R43" s="52"/>
       <c r="S43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="T43" s="28">
         <v>28.691983122362867</v>
       </c>
-      <c r="V43" s="51"/>
+      <c r="V43" s="53"/>
       <c r="W43" s="27" t="s">
         <v>14</v>
       </c>
       <c r="X43" s="28">
         <v>43.45703125</v>
       </c>
-      <c r="Z43" s="53"/>
+      <c r="Z43" s="52"/>
       <c r="AA43" s="27" t="s">
         <v>14</v>
       </c>
@@ -14452,35 +15218,35 @@
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B44" s="51"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="28">
         <v>43.774703557312257</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="28">
         <v>33.139534883720927</v>
       </c>
-      <c r="J44" s="51"/>
+      <c r="J44" s="53"/>
       <c r="K44" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="28">
         <v>41.32231404958678</v>
       </c>
-      <c r="N44" s="51"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="28">
         <v>25.78125</v>
       </c>
-      <c r="V44" s="51"/>
+      <c r="V44" s="53"/>
       <c r="W44" s="27" t="s">
         <v>10</v>
       </c>
@@ -14489,7 +15255,7 @@
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -14498,7 +15264,7 @@
       <c r="D45" s="28">
         <v>35.623159960745831</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="53" t="s">
         <v>48</v>
       </c>
       <c r="G45" s="27" t="s">
@@ -14507,7 +15273,7 @@
       <c r="H45" s="28">
         <v>33.233830845771145</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="53" t="s">
         <v>48</v>
       </c>
       <c r="K45" s="27" t="s">
@@ -14516,7 +15282,7 @@
       <c r="L45" s="28">
         <v>35.170340681362724</v>
       </c>
-      <c r="N45" s="51" t="s">
+      <c r="N45" s="53" t="s">
         <v>48</v>
       </c>
       <c r="O45" s="27" t="s">
@@ -14525,7 +15291,7 @@
       <c r="P45" s="28">
         <v>25.622775800711743</v>
       </c>
-      <c r="V45" s="51" t="s">
+      <c r="V45" s="53" t="s">
         <v>48</v>
       </c>
       <c r="W45" s="27" t="s">
@@ -14536,35 +15302,35 @@
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B46" s="51"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="28">
         <v>34.867776689520078</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="28">
         <v>32.376237623762378</v>
       </c>
-      <c r="J46" s="51"/>
+      <c r="J46" s="53"/>
       <c r="K46" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L46" s="28">
         <v>35.777126099706749</v>
       </c>
-      <c r="N46" s="51"/>
+      <c r="N46" s="53"/>
       <c r="O46" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P46" s="28">
         <v>22.547584187408493</v>
       </c>
-      <c r="V46" s="51"/>
+      <c r="V46" s="53"/>
       <c r="W46" s="27" t="s">
         <v>14</v>
       </c>
@@ -14573,35 +15339,35 @@
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B47" s="51"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="28">
         <v>32.77723258096173</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H47" s="28">
         <v>30.031612223393044</v>
       </c>
-      <c r="J47" s="51"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="N47" s="51"/>
+      <c r="N47" s="53"/>
       <c r="O47" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P47" s="28">
         <v>23.877917414721722</v>
       </c>
-      <c r="V47" s="51"/>
+      <c r="V47" s="53"/>
       <c r="W47" s="27" t="s">
         <v>10</v>
       </c>
@@ -14610,7 +15376,7 @@
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -14619,7 +15385,7 @@
       <c r="D48" s="28">
         <v>46.130952380952387</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="53" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="27" t="s">
@@ -14628,7 +15394,7 @@
       <c r="H48" s="28">
         <v>42.44532803180914</v>
       </c>
-      <c r="J48" s="51" t="s">
+      <c r="J48" s="53" t="s">
         <v>47</v>
       </c>
       <c r="K48" s="27" t="s">
@@ -14637,7 +15403,7 @@
       <c r="L48" s="28">
         <v>43.4</v>
       </c>
-      <c r="N48" s="51" t="s">
+      <c r="N48" s="53" t="s">
         <v>47</v>
       </c>
       <c r="O48" s="27" t="s">
@@ -14646,7 +15412,7 @@
       <c r="P48" s="28">
         <v>24.434389140271492</v>
       </c>
-      <c r="V48" s="51" t="s">
+      <c r="V48" s="53" t="s">
         <v>47</v>
       </c>
       <c r="W48" s="27" t="s">
@@ -14657,35 +15423,35 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B49" s="51"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="28">
         <v>44.642857142857146</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="28">
         <v>41.558441558441558</v>
       </c>
-      <c r="J49" s="51"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L49" s="28">
         <v>43.861386138613859</v>
       </c>
-      <c r="N49" s="51"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="P49" s="28">
         <v>23.843416370106763</v>
       </c>
-      <c r="V49" s="51"/>
+      <c r="V49" s="53"/>
       <c r="W49" s="27" t="s">
         <v>14</v>
       </c>
@@ -14694,35 +15460,35 @@
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="28">
         <v>41.816367265469061</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H50" s="28">
         <v>33.973589435774308</v>
       </c>
-      <c r="J50" s="51"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="28">
         <v>43.743641912512714</v>
       </c>
-      <c r="N50" s="51"/>
+      <c r="N50" s="53"/>
       <c r="O50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P50" s="28">
         <v>24.731182795698924</v>
       </c>
-      <c r="V50" s="51"/>
+      <c r="V50" s="53"/>
       <c r="W50" s="27" t="s">
         <v>10</v>
       </c>
@@ -14732,6 +15498,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="V36:V38"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="V42:V44"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="V48:V50"/>
     <mergeCell ref="Z42:Z43"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="R32:R33"/>
@@ -14748,39 +15547,6 @@
     <mergeCell ref="Z40:Z41"/>
     <mergeCell ref="V30:V32"/>
     <mergeCell ref="V33:V35"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="V36:V38"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="V42:V44"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="V48:V50"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="N33:N35"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14792,10 +15558,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:P31"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14806,7 +15572,7 @@
     <col min="11" max="16" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
@@ -14817,16 +15583,17 @@
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
@@ -14867,9 +15634,12 @@
       <c r="P3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -14892,7 +15662,7 @@
         <v>49.444444444444443</v>
       </c>
       <c r="I4" s="22">
-        <f t="shared" ref="I4:I17" si="0">(G4/$D$29)*100</f>
+        <f>(G4/$D$36)*100</f>
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
@@ -14913,9 +15683,13 @@
         <f>H4-H6</f>
         <v>1.8998015873015888</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="Q4" s="7">
+        <f>H7-H4</f>
+        <v>-49.444444444444443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -14932,11 +15706,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <f t="shared" ref="H5:H23" si="1">(E5/D5)*100</f>
+        <f t="shared" ref="H5:H29" si="0">(E5/D5)*100</f>
         <v>48.222222222222221</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" si="0"/>
+        <f>(G5/$D$36)*100</f>
         <v>0</v>
       </c>
       <c r="J5" s="4"/>
@@ -14945,21 +15719,25 @@
       </c>
       <c r="L5" s="7">
         <f>H8-H9</f>
-        <v>8.4921175245957556</v>
+        <v>0.11198208286674571</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="7">
-        <f>H7-H8</f>
-        <v>0.11198208286674571</v>
+        <f>H9-H8</f>
+        <v>-0.11198208286674571</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
-        <f>H7-H9</f>
+        <f>H8-H10</f>
         <v>8.6040996074625014</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="Q5" s="7">
+        <f>H11-H8</f>
+        <v>-43.673012318029116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -14976,11 +15754,11 @@
         <v>4</v>
       </c>
       <c r="H6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47.544642857142854</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="0"/>
+        <f>(G6/$D$36)*100</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="J6" s="4"/>
@@ -14988,89 +15766,80 @@
         <v>7</v>
       </c>
       <c r="L6" s="7">
-        <f>H11-H12</f>
-        <v>-0.79040404040404155</v>
+        <f>H14-H13</f>
+        <v>0.79040404040404155</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="7">
-        <f>H10-H11</f>
-        <v>1</v>
+        <f>H13-H12</f>
+        <v>-1</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="7">
-        <f>H10-H12</f>
+        <f>H12-H14</f>
         <v>0.20959595959595845</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>893</v>
-      </c>
-      <c r="E7" s="1">
-        <v>390</v>
-      </c>
-      <c r="F7" s="1">
-        <v>503</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19">
-        <f t="shared" si="1"/>
-        <v>43.673012318029116</v>
-      </c>
-      <c r="I7" s="23">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
+      <c r="Q6" s="7">
+        <f>H15-H12</f>
+        <v>-40.777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="46"/>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="4"/>
       <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="7">
-        <f>H14-H15</f>
-        <v>0.58414118816803651</v>
+        <f>H18-H17</f>
+        <v>-0.58414118816803651</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="7">
-        <f>H13-H14</f>
-        <v>-4.9138229826385604</v>
+        <f>H17-H16</f>
+        <v>4.9138229826385604</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="7">
-        <f>H13-H15</f>
+        <f>H16-H18</f>
         <v>-4.3296817944705239</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>893</v>
       </c>
       <c r="E8" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F8" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="1"/>
-        <v>43.56103023516237</v>
+        <f t="shared" si="0"/>
+        <v>43.673012318029116</v>
       </c>
       <c r="I8" s="23">
-        <f t="shared" si="0"/>
+        <f>(G8/$D$36)*100</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="J8" s="4"/>
@@ -15079,92 +15848,89 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7">
-        <f>H17-H14</f>
+        <f>H21-H17</f>
         <v>2.8500332623175808</v>
       </c>
       <c r="N8" s="7">
-        <f>H16-H17</f>
-        <v>0.84124190546765476</v>
+        <f>H21-H20</f>
+        <v>-0.84124190546765476</v>
       </c>
       <c r="O8" s="7">
-        <f>H16-H13</f>
+        <f>H20-H16</f>
         <v>8.605098150423796</v>
       </c>
-      <c r="P8" s="7">
-        <f>H16-H15</f>
-        <v>4.2754163559532721</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>653</v>
+        <v>893</v>
       </c>
       <c r="E9" s="1">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="G9" s="1">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="1"/>
-        <v>35.068912710566615</v>
+        <f t="shared" si="0"/>
+        <v>43.56103023516237</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" si="0"/>
-        <v>27.444444444444443</v>
+        <f>(G9/$D$36)*100</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="7">
-        <f>H20-H21</f>
-        <v>2.3986486486486456</v>
+      <c r="L9" s="8">
+        <f>H26-H25</f>
+        <v>-2.3986486486486456</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="7">
-        <f>H19-H20</f>
-        <v>10</v>
+        <f>H25-H24</f>
+        <v>-10</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
-        <f>H19-H21</f>
+        <f>H24-H26</f>
         <v>12.398648648648646</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>367</v>
-      </c>
-      <c r="F10" s="3">
-        <v>533</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="1"/>
-        <v>40.777777777777779</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>653</v>
+      </c>
+      <c r="E10" s="1">
+        <v>229</v>
+      </c>
+      <c r="F10" s="1">
+        <v>424</v>
+      </c>
+      <c r="G10" s="1">
+        <v>247</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35.068912710566615</v>
+      </c>
+      <c r="I10" s="23">
+        <f>(G10/$D$36)*100</f>
+        <v>27.444444444444443</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="14" t="s">
@@ -15172,193 +15938,165 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="7">
-        <f>H23-H20</f>
+        <f>H29-H25</f>
         <v>7.9949664429530216</v>
       </c>
       <c r="N10" s="7">
-        <f>H22-H23</f>
-        <v>-20.97993912054865</v>
+        <f>H29-H28</f>
+        <v>20.97993912054865</v>
       </c>
       <c r="O10" s="7">
-        <f>H22-H20</f>
-        <v>-12.984972677595628</v>
-      </c>
-      <c r="P10" s="7">
-        <f>H22-H21</f>
-        <v>-10.586324028946983</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="3" t="s">
+        <f>H28-H24</f>
+        <v>-22.984972677595628</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="46"/>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>367</v>
+      </c>
+      <c r="F12" s="3">
+        <v>533</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>40.777777777777779</v>
+      </c>
+      <c r="I12" s="22">
+        <f>(G12/$D$36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="3">
         <v>900</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <v>358</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>542</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="18">
-        <f t="shared" si="1"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
         <v>39.777777777777779</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I13" s="22">
+        <f>(G13/$D$36)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>880</v>
+      </c>
+      <c r="E14" s="3">
+        <v>357</v>
+      </c>
+      <c r="F14" s="3">
+        <v>523</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>880</v>
-      </c>
-      <c r="E12" s="3">
-        <v>357</v>
-      </c>
-      <c r="F12" s="3">
-        <v>523</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="1"/>
         <v>40.56818181818182</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I14" s="22">
+        <f>(G14/$D$36)*100</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>213</v>
+      </c>
+      <c r="E16" s="1">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>167</v>
+      </c>
+      <c r="G16" s="1">
+        <v>687</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>213</v>
-      </c>
-      <c r="E13" s="1">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1">
-        <v>167</v>
-      </c>
-      <c r="G13" s="1">
-        <v>687</v>
-      </c>
-      <c r="H13" s="19">
-        <f t="shared" si="1"/>
         <v>21.5962441314554</v>
       </c>
-      <c r="I13" s="23">
-        <f t="shared" si="0"/>
+      <c r="I16" s="23">
+        <f>(G16/$D$36)*100</f>
         <v>76.333333333333329</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
-        <v>298</v>
-      </c>
-      <c r="E14" s="1">
-        <v>79</v>
-      </c>
-      <c r="F14" s="1">
-        <v>219</v>
-      </c>
-      <c r="G14" s="1">
-        <v>602</v>
-      </c>
-      <c r="H14" s="19">
-        <f t="shared" si="1"/>
-        <v>26.51006711409396</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="0"/>
-        <v>66.888888888888886</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>873</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" si="1"/>
-        <v>25.925925925925924</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>894</v>
-      </c>
-      <c r="E16" s="3">
-        <v>270</v>
-      </c>
-      <c r="F16" s="3">
-        <v>624</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="1"/>
-        <v>30.201342281879196</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="49" t="s">
@@ -15373,31 +16111,35 @@
         <v>15</v>
       </c>
       <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3">
-        <v>797</v>
-      </c>
-      <c r="E17" s="3">
-        <v>234</v>
-      </c>
-      <c r="F17" s="3">
-        <v>563</v>
-      </c>
-      <c r="G17" s="3">
-        <v>103</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="1"/>
-        <v>29.360100376411541</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="D17" s="1">
+        <v>298</v>
+      </c>
+      <c r="E17" s="1">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1">
+        <v>219</v>
+      </c>
+      <c r="G17" s="1">
+        <v>602</v>
+      </c>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>11.444444444444445</v>
+        <v>26.51006711409396</v>
+      </c>
+      <c r="I17" s="23">
+        <f>(G17/$D$36)*100</f>
+        <v>66.888888888888886</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="21" t="s">
@@ -15418,18 +16160,38 @@
       <c r="P17" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="24" t="s">
+      <c r="Q17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="D18" s="1">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1">
+        <v>873</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>25.925925925925924</v>
+      </c>
+      <c r="I18" s="23">
+        <f>(G18/$D$36)*100</f>
+        <v>97</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1" t="s">
         <v>5</v>
@@ -15449,34 +16211,25 @@
       <c r="P18" s="11">
         <v>49.444444444444443</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1">
-        <v>576</v>
-      </c>
-      <c r="E19" s="1">
-        <v>252</v>
-      </c>
-      <c r="F19" s="1">
-        <v>324</v>
-      </c>
-      <c r="G19" s="1">
-        <v>324</v>
-      </c>
-      <c r="H19" s="19">
-        <f t="shared" si="1"/>
-        <v>43.75</v>
-      </c>
-      <c r="I19" s="23">
-        <f>(G19/$D$29)*100</f>
-        <v>36</v>
-      </c>
+      <c r="Q18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="11">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="46"/>
+      <c r="C19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="4"/>
       <c r="K19" s="1" t="s">
         <v>7</v>
@@ -15496,31 +16249,40 @@
       <c r="P19" s="11">
         <v>43.75</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>320</v>
-      </c>
-      <c r="E20" s="1">
-        <v>108</v>
-      </c>
-      <c r="F20" s="1">
-        <v>212</v>
-      </c>
-      <c r="G20" s="1">
-        <v>580</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="1"/>
-        <v>33.75</v>
-      </c>
-      <c r="I20" s="23">
-        <f>(G20/$D$29)*100</f>
-        <v>64.444444444444443</v>
+      <c r="Q19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="11">
+        <f>H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>894</v>
+      </c>
+      <c r="E20" s="3">
+        <v>270</v>
+      </c>
+      <c r="F20" s="3">
+        <v>624</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>30.201342281879196</v>
+      </c>
+      <c r="I20" s="22">
+        <f>(G20/$D$36)*100</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="1" t="s">
@@ -15541,31 +16303,38 @@
       <c r="P20" s="11">
         <v>43.673012318029116</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="11">
+        <f>H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="38"/>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>185</v>
-      </c>
-      <c r="E21" s="1">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1">
-        <v>127</v>
-      </c>
-      <c r="G21" s="1">
-        <v>715</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="1"/>
-        <v>31.351351351351354</v>
-      </c>
-      <c r="I21" s="23">
-        <f>(G21/$D$29)*100</f>
-        <v>79.444444444444443</v>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>797</v>
+      </c>
+      <c r="E21" s="3">
+        <v>234</v>
+      </c>
+      <c r="F21" s="3">
+        <v>563</v>
+      </c>
+      <c r="G21" s="3">
+        <v>103</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>29.360100376411541</v>
+      </c>
+      <c r="I21" s="22">
+        <f>(G21/$D$36)*100</f>
+        <v>11.444444444444445</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="1" t="s">
@@ -15587,33 +16356,17 @@
         <v>40.777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3">
-        <v>183</v>
-      </c>
-      <c r="E22" s="3">
-        <v>38</v>
-      </c>
-      <c r="F22" s="3">
-        <v>145</v>
-      </c>
-      <c r="G22" s="3">
-        <v>717</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="1"/>
-        <v>20.765027322404372</v>
-      </c>
-      <c r="I22" s="22">
-        <f>(G22/$D$29)*100</f>
-        <v>79.666666666666657</v>
-      </c>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="38"/>
+      <c r="C22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="4"/>
       <c r="K22" s="1" t="s">
         <v>8</v>
@@ -15634,31 +16387,17 @@
         <v>30.201342281879196</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5">
-        <v>745</v>
-      </c>
-      <c r="E23" s="5">
-        <v>311</v>
-      </c>
-      <c r="F23" s="5">
-        <v>434</v>
-      </c>
-      <c r="G23" s="5">
-        <v>155</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="1"/>
-        <v>41.744966442953022</v>
-      </c>
-      <c r="I23" s="22">
-        <f>(G23/$D$29)*100</f>
-        <v>17.222222222222221</v>
-      </c>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="4"/>
       <c r="M23" s="1" t="s">
         <v>11</v>
@@ -15673,17 +16412,33 @@
         <v>21.5962441314554</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>576</v>
+      </c>
+      <c r="E24" s="1">
+        <v>252</v>
+      </c>
+      <c r="F24" s="1">
+        <v>324</v>
+      </c>
+      <c r="G24" s="1">
+        <v>324</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+      <c r="I24" s="23">
+        <f>(G24/$D$36)*100</f>
+        <v>36</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="M24" s="1" t="s">
         <v>8</v>
@@ -15698,85 +16453,277 @@
         <v>20.765027322404372</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="38"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>320</v>
+      </c>
+      <c r="E25" s="1">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1">
+        <v>212</v>
+      </c>
+      <c r="G25" s="1">
+        <v>580</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
+      </c>
+      <c r="I25" s="23">
+        <f>(G25/$D$36)*100</f>
+        <v>64.444444444444443</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>185</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1">
+        <v>127</v>
+      </c>
+      <c r="G26" s="1">
+        <v>715</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>31.351351351351354</v>
+      </c>
+      <c r="I26" s="23">
+        <f>(G26/$D$36)*100</f>
+        <v>79.444444444444443</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>183</v>
+      </c>
+      <c r="E28" s="3">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3">
+        <v>145</v>
+      </c>
+      <c r="G28" s="3">
+        <v>717</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>20.765027322404372</v>
+      </c>
+      <c r="I28" s="22">
+        <f>(G28/$D$36)*100</f>
+        <v>79.666666666666657</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5">
+        <v>745</v>
+      </c>
+      <c r="E29" s="5">
+        <v>311</v>
+      </c>
+      <c r="F29" s="5">
+        <v>434</v>
+      </c>
+      <c r="G29" s="5">
+        <v>155</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>41.744966442953022</v>
+      </c>
+      <c r="I29" s="22">
+        <f>(G29/$D$36)*100</f>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="38"/>
+      <c r="C31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="F27" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="F34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C36" s="12">
         <v>900</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D36" s="12">
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C37" s="12">
         <v>125</v>
       </c>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="12">
-        <f>SUM(C29:C30)</f>
+      <c r="C38" s="12">
+        <f>SUM(C36:C37)</f>
         <v>1025</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" ref="D31" si="2">SUM(D29:D30)</f>
+      <c r="D38" s="12">
+        <f t="shared" ref="D38" si="1">SUM(D36:D37)</f>
         <v>900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K15:P15"/>
+  <mergeCells count="16">
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
+  <conditionalFormatting sqref="L4:Q10">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="notContainsText" priority="2" operator="notContains" id="{C0F4A65B-F0DE-4FA7-AD70-F385349CE736}">
+            <xm:f>ISERROR(SEARCH("-",L4))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{047447CD-BF9E-4DA2-AFA5-CD3271341FAF}">
+            <xm:f>NOT(ISERROR(SEARCH("-",L4)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFCDCD"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L4:Q10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16753,12 +17700,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -16768,6 +17709,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17746,12 +18693,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -17761,6 +18702,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18739,12 +19686,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -18754,6 +19695,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19732,12 +20679,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B13:B15"/>
@@ -19747,6 +20688,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
